--- a/docs/template-basic.xlsx
+++ b/docs/template-basic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="148">
   <si>
     <t>Path</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -641,43 +638,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.39453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="38.44140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.81640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="75.62109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.26171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="71.203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.2109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1275,25 +1272,25 @@
         <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1316,11 +1313,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1339,16 +1336,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1398,7 +1395,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
@@ -1407,13 +1404,13 @@
         <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>41</v>
@@ -1421,11 +1418,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1444,16 +1441,16 @@
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1503,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -1518,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -1526,7 +1523,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1549,13 +1546,13 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1594,17 +1591,17 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -1627,10 +1624,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>41</v>
@@ -1652,13 +1649,13 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1709,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1732,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -1757,13 +1754,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1814,7 +1811,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -1837,11 +1834,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -1860,16 +1857,16 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1919,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1934,7 +1931,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1965,13 +1962,13 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2022,7 +2019,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2037,15 +2034,15 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2068,19 +2065,19 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2105,7 +2102,7 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
@@ -2127,7 +2124,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>47</v>
@@ -2142,15 +2139,15 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2173,19 +2170,19 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2234,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2249,15 +2246,15 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2280,17 +2277,17 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2339,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2354,15 +2351,15 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2385,17 +2382,17 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2444,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2459,10 +2456,10 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
